--- a/2025 Bible Reading Plan.xlsx
+++ b/2025 Bible Reading Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\prodigals-playground\daily-bible-calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA727F-499F-43A2-9B6B-184FFB28FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF3ABA-A6CA-4EE3-BE3F-59516D375670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>NTSC</t>
+    <t>Jude</t>
+  </si>
+  <si>
+    <t>Joshua</t>
   </si>
   <si>
     <t>OT</t>
@@ -40,13 +43,79 @@
     <t>NT</t>
   </si>
   <si>
-    <t>NTEC</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t>NTSC</t>
+  </si>
+  <si>
+    <t>NTEC</t>
+  </si>
+  <si>
+    <t>Revelation</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Galatians</t>
+  </si>
+  <si>
+    <t>2 Timothy</t>
+  </si>
+  <si>
+    <t>1 Timothy</t>
+  </si>
+  <si>
+    <t>Hebrews</t>
+  </si>
+  <si>
+    <t>2 Thessalonians</t>
+  </si>
+  <si>
+    <t>1 Thessalonians</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke </t>
+  </si>
+  <si>
+    <t>Colossians</t>
+  </si>
+  <si>
+    <t>Philippians</t>
+  </si>
+  <si>
+    <t>1 Corinthians</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Romans</t>
+  </si>
+  <si>
+    <t>Ephesians</t>
+  </si>
+  <si>
+    <t>2 Peter</t>
+  </si>
+  <si>
+    <t>1 Peter</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew </t>
+  </si>
+  <si>
+    <t>Acts</t>
   </si>
   <si>
     <t>Jeremiah</t>
@@ -55,43 +124,19 @@
     <t>2 Chronicles</t>
   </si>
   <si>
-    <t>James</t>
+    <t>Lamentations</t>
   </si>
   <si>
     <t>1 Chronicles</t>
   </si>
   <si>
-    <t>Galatians</t>
-  </si>
-  <si>
-    <t>Lamentations</t>
-  </si>
-  <si>
-    <t>2 Timothy</t>
-  </si>
-  <si>
     <t>Deuteronomy</t>
-  </si>
-  <si>
-    <t>1 Timothy</t>
   </si>
   <si>
     <t>Ezekiel</t>
   </si>
   <si>
-    <t>Hebrews</t>
-  </si>
-  <si>
-    <t>2 Thessalonians</t>
-  </si>
-  <si>
     <t>Numbers</t>
-  </si>
-  <si>
-    <t>1 Thessalonians</t>
-  </si>
-  <si>
-    <t>Luke</t>
   </si>
   <si>
     <t>Daniel</t>
@@ -106,13 +151,40 @@
     <t>Isaiah</t>
   </si>
   <si>
-    <t>Revelation</t>
+    <t>Leviticus</t>
   </si>
   <si>
-    <t>Colossians</t>
+    <t>Esther</t>
   </si>
   <si>
-    <t>Philippians</t>
+    <t>Nehemiah</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Song of Songs</t>
+  </si>
+  <si>
+    <t>Exodus</t>
+  </si>
+  <si>
+    <t>Ecclesiastes</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>2 Samuel</t>
+  </si>
+  <si>
+    <t>1 Samuel</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Judges</t>
   </si>
 </sst>
 </file>
@@ -120,14 +192,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="13"/>
@@ -163,10 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +472,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -401,420 +487,422 @@
     <col min="6" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45867</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>128</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>45868</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H3" s="1">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>45869</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>130</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45870</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>131</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45871</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45873</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>133</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45874</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>46</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45949</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45950</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45951</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>134</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45875</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45953</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>135</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45876</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45954</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45955</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G11" s="1">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>136</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45877</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45878</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>51</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45956</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="1">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45957</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45958</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="H13" s="1">
+        <v>137</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1">
+        <v>138</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45880</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45959</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1">
-        <v>54</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45960</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1">
-        <v>55</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45961</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1">
-        <v>56</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -822,1342 +910,1344 @@
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
         <v>23</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
+        <v>139</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45881</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1">
+        <v>140</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45882</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1">
+        <v>141</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45883</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45884</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="G15" s="1">
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>142</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45885</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>143</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45886</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>144</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>45887</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>145</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>45888</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>146</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>45889</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45890</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>147</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45891</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
         <v>15</v>
       </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="D26" s="1">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1">
+        <v>148</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45892</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>149</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45893</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>150</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>45894</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45895</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45896</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45897</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45963</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45898</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
+      <c r="G33" s="1">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>45899</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1">
+        <v>26</v>
+      </c>
+      <c r="H34" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1">
-        <v>57</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45964</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1">
+        <v>27</v>
+      </c>
+      <c r="G35" s="1">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45901</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1">
+        <v>40</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1">
-        <v>18</v>
-      </c>
-      <c r="H17" s="1">
-        <v>58</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45965</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20</v>
-      </c>
-      <c r="H18" s="1">
-        <v>59</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45966</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1">
-        <v>60</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45967</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1">
-        <v>22</v>
-      </c>
-      <c r="G20" s="1">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1">
-        <v>61</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>45968</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1">
-        <v>24</v>
-      </c>
-      <c r="G21" s="1">
-        <v>24</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>45969</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>62</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>45970</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>63</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1">
-        <v>64</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45972</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>30</v>
-      </c>
-      <c r="D25" s="1">
-        <v>33</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1">
-        <v>5</v>
-      </c>
-      <c r="H25" s="1">
-        <v>65</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45973</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>66</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>45974</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>45975</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>67</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>68</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>45977</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1">
-        <v>11</v>
-      </c>
-      <c r="D30" s="1">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
-      </c>
-      <c r="H30" s="1">
-        <v>69</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1">
-        <v>5</v>
-      </c>
-      <c r="H31" s="1">
-        <v>70</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45979</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1">
-        <v>25</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1">
-        <v>71</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>45980</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="1">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>45981</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="1">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="1">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1">
-        <v>9</v>
-      </c>
-      <c r="H34" s="1">
-        <v>72</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>45982</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1">
-        <v>40</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1">
-        <v>11</v>
-      </c>
-      <c r="H35" s="1">
-        <v>73</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>45983</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1">
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45902</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
         <v>41</v>
       </c>
-      <c r="D36" s="1">
-        <v>44</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1">
-        <v>12</v>
-      </c>
-      <c r="G36" s="1">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1">
-        <v>74</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>45984</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>45</v>
       </c>
-      <c r="D37" s="1">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
+      <c r="E37" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>45985</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
+      <c r="A38" s="3">
+        <v>45903</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
       </c>
       <c r="H38" s="1">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>45986</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
+      <c r="A39" s="3">
+        <v>45904</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
       </c>
       <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>45905</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
         <v>4</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>45987</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="E40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
         <v>10</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45906</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="G40" s="1">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1">
-        <v>77</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>45988</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
         <v>11</v>
       </c>
-      <c r="D41" s="1">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>78</v>
-      </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>45989</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
+      <c r="A42" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>45908</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="1">
-        <v>79</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>45990</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>45909</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45910</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45911</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1">
         <v>16</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45912</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1">
         <v>21</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D47" s="1">
         <v>25</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>16</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45913</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>45914</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1">
+        <v>35</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>45915</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>40</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45916</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="1">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1">
+        <v>19</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>45917</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>45918</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1">
         <v>15</v>
       </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2</v>
-      </c>
-      <c r="H43" s="1">
-        <v>80</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>45991</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="H53" s="1">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>45919</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="1">
         <v>16</v>
       </c>
-      <c r="C44" s="1">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1">
-        <v>30</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1">
-        <v>81</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="G54" s="1">
         <v>16</v>
       </c>
-      <c r="C45" s="1">
-        <v>31</v>
-      </c>
-      <c r="D45" s="1">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>27</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>45920</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>22</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45993</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>82</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>45994</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1">
-        <v>83</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>45995</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1">
-        <v>4</v>
-      </c>
-      <c r="G48" s="1">
-        <v>5</v>
-      </c>
-      <c r="H48" s="1">
-        <v>84</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>45996</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1">
-        <v>85</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>45997</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="1">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>86</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>45998</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1">
-        <v>20</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>45999</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1">
-        <v>25</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>4</v>
-      </c>
-      <c r="H52" s="1">
-        <v>87</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>46000</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1">
-        <v>29</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>88</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <v>89</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>46002</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>90</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>46003</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="1">
-        <v>6</v>
       </c>
       <c r="D56" s="1">
         <v>10</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>28</v>
+      <c r="E56" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>45922</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
         <v>3</v>
       </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-      <c r="H56" s="1">
-        <v>91</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>46004</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="H57" s="1">
+        <v>24</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>45923</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1">
+        <v>25</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>45924</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1">
         <v>10</v>
       </c>
-      <c r="C57" s="1">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="D59" s="1">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>26</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>45925</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="G57" s="1">
-        <v>4</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>46005</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1">
-        <v>16</v>
-      </c>
-      <c r="D58" s="1">
-        <v>20</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5</v>
-      </c>
-      <c r="G58" s="1">
-        <v>5</v>
-      </c>
-      <c r="H58" s="1">
-        <v>92</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>46006</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="1">
-        <v>21</v>
-      </c>
-      <c r="D59" s="1">
-        <v>25</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="E60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="1">
         <v>6</v>
-      </c>
-      <c r="G59" s="1">
-        <v>6</v>
-      </c>
-      <c r="H59" s="1">
-        <v>93</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>46007</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1">
-        <v>26</v>
-      </c>
-      <c r="D60" s="1">
-        <v>30</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="1">
-        <v>7</v>
       </c>
       <c r="G60" s="1">
         <v>7</v>
       </c>
       <c r="H60" s="1">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C61" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>36</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F61" s="1">
         <v>8</v>
@@ -2166,192 +2256,192 @@
         <v>8</v>
       </c>
       <c r="H61" s="1">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>46009</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>45927</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1">
         <v>10</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>28</v>
+      <c r="E62" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F62" s="1">
         <v>9</v>
       </c>
       <c r="G62" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>46010</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="1">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1">
+        <v>29</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>45929</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" s="1">
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="1">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1">
+        <v>30</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1">
         <v>10</v>
       </c>
-      <c r="G63" s="1">
-        <v>10</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
+      <c r="E65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="1">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1">
+        <v>31</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>45931</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>46011</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="1">
-        <v>11</v>
-      </c>
-      <c r="G64" s="1">
-        <v>11</v>
-      </c>
-      <c r="H64" s="1">
-        <v>97</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>46012</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1">
-        <v>9</v>
-      </c>
-      <c r="D65" s="1">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="1">
-        <v>12</v>
-      </c>
-      <c r="G65" s="1">
-        <v>12</v>
-      </c>
-      <c r="H65" s="1">
-        <v>98</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>46013</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1">
-        <v>13</v>
-      </c>
       <c r="D66" s="1">
+        <v>15</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="1">
+        <v>15</v>
+      </c>
+      <c r="G66" s="1">
         <v>16</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="1">
-        <v>13</v>
-      </c>
-      <c r="G66" s="1">
-        <v>13</v>
-      </c>
       <c r="H66" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>46014</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
+      <c r="A67" s="3">
+        <v>45932</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C67" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1">
         <v>20</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>28</v>
+      <c r="E67" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F67" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G67" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H67" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>46015</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="A68" s="3">
+        <v>45933</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C68" s="1">
         <v>21</v>
@@ -2359,1065 +2449,2571 @@
       <c r="D68" s="1">
         <v>24</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>28</v>
+      <c r="E68" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F68" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G68" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H68" s="1">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>46016</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="A69" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C69" s="1">
         <v>25</v>
       </c>
       <c r="D69" s="1">
+        <v>27</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="1">
+        <v>20</v>
+      </c>
+      <c r="G69" s="1">
+        <v>20</v>
+      </c>
+      <c r="H69" s="1">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="1">
+        <v>21</v>
+      </c>
+      <c r="G70" s="1">
+        <v>21</v>
+      </c>
+      <c r="H70" s="1">
+        <v>35</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45936</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>36</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>45938</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="1">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>15</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1">
+        <v>37</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="1">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>38</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>45940</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1">
+        <v>21</v>
+      </c>
+      <c r="D75" s="1">
+        <v>25</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6</v>
+      </c>
+      <c r="H75" s="1">
+        <v>39</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>45941</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="1">
+        <v>26</v>
+      </c>
+      <c r="D76" s="1">
+        <v>30</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7</v>
+      </c>
+      <c r="G76" s="1">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1">
+        <v>40</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>45942</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="1">
+        <v>31</v>
+      </c>
+      <c r="D77" s="1">
+        <v>35</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>9</v>
+      </c>
+      <c r="H77" s="1">
+        <v>41</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="1">
+        <v>36</v>
+      </c>
+      <c r="D78" s="1">
+        <v>40</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1">
+        <v>11</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="1">
+        <v>41</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="1">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1">
+        <v>12</v>
+      </c>
+      <c r="H79" s="1">
+        <v>42</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45945</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="1">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1">
+        <v>50</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1">
+        <v>43</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45946</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="1">
+        <v>51</v>
+      </c>
+      <c r="D81" s="1">
+        <v>55</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="1">
+        <v>15</v>
+      </c>
+      <c r="G81" s="1">
+        <v>16</v>
+      </c>
+      <c r="H81" s="1">
+        <v>44</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>45947</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="1">
+        <v>56</v>
+      </c>
+      <c r="D82" s="1">
+        <v>60</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>45</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>45948</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="1">
+        <v>61</v>
+      </c>
+      <c r="D83" s="1">
+        <v>63</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1">
+        <v>46</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>45949</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="1">
+        <v>64</v>
+      </c>
+      <c r="D84" s="1">
+        <v>66</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>47</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>48</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>49</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="1">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1">
+        <v>15</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1">
+        <v>50</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="1">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1">
+        <v>19</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
+      <c r="G89" s="1">
+        <v>5</v>
+      </c>
+      <c r="H89" s="1">
+        <v>51</v>
+      </c>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="1">
+        <v>20</v>
+      </c>
+      <c r="D90" s="1">
+        <v>22</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1">
+        <v>6</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="1">
+        <v>7</v>
+      </c>
+      <c r="G91" s="1">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1">
+        <v>52</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="1">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1">
+        <v>10</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="1">
+        <v>9</v>
+      </c>
+      <c r="G92" s="1">
+        <v>9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>53</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="1">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1">
+        <v>15</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="1">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1">
+        <v>54</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="1">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1">
+        <v>20</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="1">
+        <v>12</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1">
+        <v>55</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1">
+        <v>21</v>
+      </c>
+      <c r="D95" s="1">
+        <v>25</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="1">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1">
+        <v>56</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>45962</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="1">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1">
+        <v>15</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>45963</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>8</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="1">
+        <v>16</v>
+      </c>
+      <c r="G97" s="1">
+        <v>17</v>
+      </c>
+      <c r="H97" s="1">
+        <v>57</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="1">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="1">
+        <v>18</v>
+      </c>
+      <c r="G98" s="1">
+        <v>18</v>
+      </c>
+      <c r="H98" s="1">
+        <v>58</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="1">
+        <v>19</v>
+      </c>
+      <c r="G99" s="1">
+        <v>20</v>
+      </c>
+      <c r="H99" s="1">
+        <v>59</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="1">
+        <v>21</v>
+      </c>
+      <c r="G100" s="1">
+        <v>21</v>
+      </c>
+      <c r="H100" s="1">
+        <v>60</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>45967</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="1">
+        <v>22</v>
+      </c>
+      <c r="G101" s="1">
+        <v>23</v>
+      </c>
+      <c r="H101" s="1">
+        <v>61</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>45968</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="1">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1">
+        <v>15</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="1">
+        <v>24</v>
+      </c>
+      <c r="G102" s="1">
+        <v>24</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>45969</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="1">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>62</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="1">
+        <v>21</v>
+      </c>
+      <c r="D104" s="1">
+        <v>25</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>63</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="1">
+        <v>26</v>
+      </c>
+      <c r="D105" s="1">
+        <v>29</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3</v>
+      </c>
+      <c r="H105" s="1">
+        <v>64</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="1">
+        <v>30</v>
+      </c>
+      <c r="D106" s="1">
+        <v>33</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>65</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>45973</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="1">
+        <v>34</v>
+      </c>
+      <c r="D107" s="1">
+        <v>36</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>66</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>45974</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>45975</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1">
+        <v>67</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1">
+        <v>10</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>68</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1">
+        <v>15</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="1">
+        <v>3</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1">
+        <v>69</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>45978</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="1">
+        <v>16</v>
+      </c>
+      <c r="D112" s="1">
+        <v>20</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="1">
+        <v>4</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>70</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="1">
+        <v>21</v>
+      </c>
+      <c r="D113" s="1">
+        <v>25</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="1">
+        <v>6</v>
+      </c>
+      <c r="G113" s="1">
+        <v>6</v>
+      </c>
+      <c r="H113" s="1">
+        <v>71</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>45980</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" s="1">
+        <v>26</v>
+      </c>
+      <c r="D114" s="1">
+        <v>30</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="1">
+        <v>7</v>
+      </c>
+      <c r="G114" s="1">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>45981</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="1">
+        <v>31</v>
+      </c>
+      <c r="D115" s="1">
+        <v>35</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="1">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1">
+        <v>9</v>
+      </c>
+      <c r="H115" s="1">
+        <v>72</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>45982</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="1">
+        <v>36</v>
+      </c>
+      <c r="D116" s="1">
+        <v>40</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="1">
+        <v>10</v>
+      </c>
+      <c r="G116" s="1">
+        <v>11</v>
+      </c>
+      <c r="H116" s="1">
+        <v>73</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>45983</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="1">
+        <v>41</v>
+      </c>
+      <c r="D117" s="1">
+        <v>44</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="1">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1">
+        <v>13</v>
+      </c>
+      <c r="H117" s="1">
+        <v>74</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45</v>
+      </c>
+      <c r="D118" s="1">
+        <v>48</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>75</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>45985</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3</v>
+      </c>
+      <c r="H119" s="1">
+        <v>76</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="1">
+        <v>4</v>
+      </c>
+      <c r="G120" s="1">
+        <v>4</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>45987</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="1">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1">
+        <v>6</v>
+      </c>
+      <c r="H121" s="1">
+        <v>77</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>45988</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="1">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1">
+        <v>15</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>78</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>45989</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="1">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1">
+        <v>79</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>45990</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="1">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1">
+        <v>25</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2</v>
+      </c>
+      <c r="H124" s="1">
+        <v>80</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="1">
+        <v>26</v>
+      </c>
+      <c r="D125" s="1">
+        <v>30</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="1">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1">
+        <v>3</v>
+      </c>
+      <c r="H125" s="1">
+        <v>81</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="1">
+        <v>31</v>
+      </c>
+      <c r="D126" s="1">
+        <v>34</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="1">
+        <v>4</v>
+      </c>
+      <c r="G126" s="1">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>82</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>45994</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="1">
+        <v>3</v>
+      </c>
+      <c r="G128" s="1">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1">
+        <v>83</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>45995</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="1">
+        <v>4</v>
+      </c>
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>84</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>45996</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="1">
+        <v>6</v>
+      </c>
+      <c r="D130" s="1">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="1">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1">
+        <v>6</v>
+      </c>
+      <c r="H130" s="1">
+        <v>85</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>45997</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="1">
+        <v>11</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
+        <v>86</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="1">
+        <v>16</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2</v>
+      </c>
+      <c r="G132" s="1">
+        <v>3</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>45999</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="1">
+        <v>21</v>
+      </c>
+      <c r="D133" s="1">
+        <v>25</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1">
+        <v>4</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4</v>
+      </c>
+      <c r="H133" s="1">
+        <v>87</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="1">
+        <v>25</v>
+      </c>
+      <c r="D134" s="1">
+        <v>29</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+      <c r="G134" s="1">
+        <v>5</v>
+      </c>
+      <c r="H134" s="1">
+        <v>88</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>46001</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
+        <v>89</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>5</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>90</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>46003</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="1">
+        <v>6</v>
+      </c>
+      <c r="D137" s="1">
+        <v>10</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3</v>
+      </c>
+      <c r="G137" s="1">
+        <v>3</v>
+      </c>
+      <c r="H137" s="1">
+        <v>91</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>46004</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="1">
+        <v>11</v>
+      </c>
+      <c r="D138" s="1">
+        <v>15</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="1">
+        <v>4</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="1">
+        <v>5</v>
+      </c>
+      <c r="G139" s="1">
+        <v>5</v>
+      </c>
+      <c r="H139" s="1">
+        <v>92</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="1">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1">
+        <v>25</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="1">
+        <v>6</v>
+      </c>
+      <c r="G140" s="1">
+        <v>6</v>
+      </c>
+      <c r="H140" s="1">
+        <v>93</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="1">
+        <v>26</v>
+      </c>
+      <c r="D141" s="1">
+        <v>30</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="1">
+        <v>7</v>
+      </c>
+      <c r="G141" s="1">
+        <v>7</v>
+      </c>
+      <c r="H141" s="1">
+        <v>94</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>46008</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="1">
+        <v>31</v>
+      </c>
+      <c r="D142" s="1">
+        <v>36</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="1">
+        <v>8</v>
+      </c>
+      <c r="G142" s="1">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1">
+        <v>95</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>46009</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="1">
+        <v>9</v>
+      </c>
+      <c r="G143" s="1">
+        <v>9</v>
+      </c>
+      <c r="H143" s="1">
+        <v>96</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>46010</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>4</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+      <c r="G144" s="1">
+        <v>10</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>46011</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1">
+        <v>8</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="1">
+        <v>11</v>
+      </c>
+      <c r="G145" s="1">
+        <v>11</v>
+      </c>
+      <c r="H145" s="1">
+        <v>97</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="1">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1">
+        <v>12</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="1">
+        <v>12</v>
+      </c>
+      <c r="G146" s="1">
+        <v>12</v>
+      </c>
+      <c r="H146" s="1">
+        <v>98</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="1">
+        <v>13</v>
+      </c>
+      <c r="D147" s="1">
+        <v>16</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="1">
+        <v>13</v>
+      </c>
+      <c r="G147" s="1">
+        <v>13</v>
+      </c>
+      <c r="H147" s="1">
+        <v>99</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="1">
+        <v>17</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="1">
+        <v>14</v>
+      </c>
+      <c r="G148" s="1">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1">
+        <v>100</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>46015</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" s="1">
+        <v>21</v>
+      </c>
+      <c r="D149" s="1">
+        <v>24</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="1">
+        <v>15</v>
+      </c>
+      <c r="G149" s="1">
+        <v>15</v>
+      </c>
+      <c r="H149" s="1">
+        <v>101</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>46016</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" s="1">
+        <v>25</v>
+      </c>
+      <c r="D150" s="1">
         <v>28</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="E150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="1">
         <v>16</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G150" s="1">
         <v>16</v>
       </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1">
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
         <v>46017</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="B151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" s="1">
         <v>29</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D151" s="1">
         <v>32</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="E151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="1">
         <v>17</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G151" s="1">
         <v>17</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H151" s="1">
         <v>102</v>
       </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
         <v>46018</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="B152" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="1">
         <v>33</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D152" s="1">
         <v>36</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="1">
         <v>18</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G152" s="1">
         <v>18</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H152" s="1">
         <v>103</v>
       </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>46019</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" s="1">
         <v>37</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D153" s="1">
         <v>40</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="E153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="1">
         <v>19</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G153" s="1">
         <v>19</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H153" s="1">
         <v>104</v>
       </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
         <v>46020</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B154" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="1">
         <v>41</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D154" s="1">
         <v>44</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="E154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="1">
         <v>20</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G154" s="1">
         <v>20</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H154" s="1">
         <v>105</v>
       </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
         <v>46021</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="B155" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" s="1">
         <v>45</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D155" s="1">
         <v>48</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="1">
         <v>21</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G155" s="1">
         <v>21</v>
       </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1">
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
         <v>46022</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="1">
+      <c r="B156" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" s="1">
         <v>49</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D156" s="1">
         <v>52</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="1">
         <v>22</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G156" s="1">
         <v>22</v>
       </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75" s="1">
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
@@ -11592,83 +13188,843 @@
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
     </row>
-    <row r="900" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="907" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="908" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="909" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="910" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="911" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="912" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="900" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A900" s="1"/>
+      <c r="B900" s="1"/>
+      <c r="C900" s="1"/>
+      <c r="D900" s="1"/>
+      <c r="E900" s="1"/>
+      <c r="F900" s="1"/>
+      <c r="G900" s="1"/>
+      <c r="H900" s="1"/>
+      <c r="I900" s="1"/>
+    </row>
+    <row r="901" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A901" s="1"/>
+      <c r="B901" s="1"/>
+      <c r="C901" s="1"/>
+      <c r="D901" s="1"/>
+      <c r="E901" s="1"/>
+      <c r="F901" s="1"/>
+      <c r="G901" s="1"/>
+      <c r="H901" s="1"/>
+      <c r="I901" s="1"/>
+    </row>
+    <row r="902" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A902" s="1"/>
+      <c r="B902" s="1"/>
+      <c r="C902" s="1"/>
+      <c r="D902" s="1"/>
+      <c r="E902" s="1"/>
+      <c r="F902" s="1"/>
+      <c r="G902" s="1"/>
+      <c r="H902" s="1"/>
+      <c r="I902" s="1"/>
+    </row>
+    <row r="903" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A903" s="1"/>
+      <c r="B903" s="1"/>
+      <c r="C903" s="1"/>
+      <c r="D903" s="1"/>
+      <c r="E903" s="1"/>
+      <c r="F903" s="1"/>
+      <c r="G903" s="1"/>
+      <c r="H903" s="1"/>
+      <c r="I903" s="1"/>
+    </row>
+    <row r="904" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A904" s="1"/>
+      <c r="B904" s="1"/>
+      <c r="C904" s="1"/>
+      <c r="D904" s="1"/>
+      <c r="E904" s="1"/>
+      <c r="F904" s="1"/>
+      <c r="G904" s="1"/>
+      <c r="H904" s="1"/>
+      <c r="I904" s="1"/>
+    </row>
+    <row r="905" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A905" s="1"/>
+      <c r="B905" s="1"/>
+      <c r="C905" s="1"/>
+      <c r="D905" s="1"/>
+      <c r="E905" s="1"/>
+      <c r="F905" s="1"/>
+      <c r="G905" s="1"/>
+      <c r="H905" s="1"/>
+      <c r="I905" s="1"/>
+    </row>
+    <row r="906" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A906" s="1"/>
+      <c r="B906" s="1"/>
+      <c r="C906" s="1"/>
+      <c r="D906" s="1"/>
+      <c r="E906" s="1"/>
+      <c r="F906" s="1"/>
+      <c r="G906" s="1"/>
+      <c r="H906" s="1"/>
+      <c r="I906" s="1"/>
+    </row>
+    <row r="907" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A907" s="1"/>
+      <c r="B907" s="1"/>
+      <c r="C907" s="1"/>
+      <c r="D907" s="1"/>
+      <c r="E907" s="1"/>
+      <c r="F907" s="1"/>
+      <c r="G907" s="1"/>
+      <c r="H907" s="1"/>
+      <c r="I907" s="1"/>
+    </row>
+    <row r="908" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A908" s="1"/>
+      <c r="B908" s="1"/>
+      <c r="C908" s="1"/>
+      <c r="D908" s="1"/>
+      <c r="E908" s="1"/>
+      <c r="F908" s="1"/>
+      <c r="G908" s="1"/>
+      <c r="H908" s="1"/>
+      <c r="I908" s="1"/>
+    </row>
+    <row r="909" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A909" s="1"/>
+      <c r="B909" s="1"/>
+      <c r="C909" s="1"/>
+      <c r="D909" s="1"/>
+      <c r="E909" s="1"/>
+      <c r="F909" s="1"/>
+      <c r="G909" s="1"/>
+      <c r="H909" s="1"/>
+      <c r="I909" s="1"/>
+    </row>
+    <row r="910" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A910" s="1"/>
+      <c r="B910" s="1"/>
+      <c r="C910" s="1"/>
+      <c r="D910" s="1"/>
+      <c r="E910" s="1"/>
+      <c r="F910" s="1"/>
+      <c r="G910" s="1"/>
+      <c r="H910" s="1"/>
+      <c r="I910" s="1"/>
+    </row>
+    <row r="911" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A911" s="1"/>
+      <c r="B911" s="1"/>
+      <c r="C911" s="1"/>
+      <c r="D911" s="1"/>
+      <c r="E911" s="1"/>
+      <c r="F911" s="1"/>
+      <c r="G911" s="1"/>
+      <c r="H911" s="1"/>
+      <c r="I911" s="1"/>
+    </row>
+    <row r="912" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A912" s="1"/>
+      <c r="B912" s="1"/>
+      <c r="C912" s="1"/>
+      <c r="D912" s="1"/>
+      <c r="E912" s="1"/>
+      <c r="F912" s="1"/>
+      <c r="G912" s="1"/>
+      <c r="H912" s="1"/>
+      <c r="I912" s="1"/>
+    </row>
+    <row r="913" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A913" s="1"/>
+      <c r="B913" s="1"/>
+      <c r="C913" s="1"/>
+      <c r="D913" s="1"/>
+      <c r="E913" s="1"/>
+      <c r="F913" s="1"/>
+      <c r="G913" s="1"/>
+      <c r="H913" s="1"/>
+      <c r="I913" s="1"/>
+    </row>
+    <row r="914" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A914" s="1"/>
+      <c r="B914" s="1"/>
+      <c r="C914" s="1"/>
+      <c r="D914" s="1"/>
+      <c r="E914" s="1"/>
+      <c r="F914" s="1"/>
+      <c r="G914" s="1"/>
+      <c r="H914" s="1"/>
+      <c r="I914" s="1"/>
+    </row>
+    <row r="915" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A915" s="1"/>
+      <c r="B915" s="1"/>
+      <c r="C915" s="1"/>
+      <c r="D915" s="1"/>
+      <c r="E915" s="1"/>
+      <c r="F915" s="1"/>
+      <c r="G915" s="1"/>
+      <c r="H915" s="1"/>
+      <c r="I915" s="1"/>
+    </row>
+    <row r="916" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A916" s="1"/>
+      <c r="B916" s="1"/>
+      <c r="C916" s="1"/>
+      <c r="D916" s="1"/>
+      <c r="E916" s="1"/>
+      <c r="F916" s="1"/>
+      <c r="G916" s="1"/>
+      <c r="H916" s="1"/>
+      <c r="I916" s="1"/>
+    </row>
+    <row r="917" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A917" s="1"/>
+      <c r="B917" s="1"/>
+      <c r="C917" s="1"/>
+      <c r="D917" s="1"/>
+      <c r="E917" s="1"/>
+      <c r="F917" s="1"/>
+      <c r="G917" s="1"/>
+      <c r="H917" s="1"/>
+      <c r="I917" s="1"/>
+    </row>
+    <row r="918" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A918" s="1"/>
+      <c r="B918" s="1"/>
+      <c r="C918" s="1"/>
+      <c r="D918" s="1"/>
+      <c r="E918" s="1"/>
+      <c r="F918" s="1"/>
+      <c r="G918" s="1"/>
+      <c r="H918" s="1"/>
+      <c r="I918" s="1"/>
+    </row>
+    <row r="919" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A919" s="1"/>
+      <c r="B919" s="1"/>
+      <c r="C919" s="1"/>
+      <c r="D919" s="1"/>
+      <c r="E919" s="1"/>
+      <c r="F919" s="1"/>
+      <c r="G919" s="1"/>
+      <c r="H919" s="1"/>
+      <c r="I919" s="1"/>
+    </row>
+    <row r="920" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A920" s="1"/>
+      <c r="B920" s="1"/>
+      <c r="C920" s="1"/>
+      <c r="D920" s="1"/>
+      <c r="E920" s="1"/>
+      <c r="F920" s="1"/>
+      <c r="G920" s="1"/>
+      <c r="H920" s="1"/>
+      <c r="I920" s="1"/>
+    </row>
+    <row r="921" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A921" s="1"/>
+      <c r="B921" s="1"/>
+      <c r="C921" s="1"/>
+      <c r="D921" s="1"/>
+      <c r="E921" s="1"/>
+      <c r="F921" s="1"/>
+      <c r="G921" s="1"/>
+      <c r="H921" s="1"/>
+      <c r="I921" s="1"/>
+    </row>
+    <row r="922" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A922" s="1"/>
+      <c r="B922" s="1"/>
+      <c r="C922" s="1"/>
+      <c r="D922" s="1"/>
+      <c r="E922" s="1"/>
+      <c r="F922" s="1"/>
+      <c r="G922" s="1"/>
+      <c r="H922" s="1"/>
+      <c r="I922" s="1"/>
+    </row>
+    <row r="923" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A923" s="1"/>
+      <c r="B923" s="1"/>
+      <c r="C923" s="1"/>
+      <c r="D923" s="1"/>
+      <c r="E923" s="1"/>
+      <c r="F923" s="1"/>
+      <c r="G923" s="1"/>
+      <c r="H923" s="1"/>
+      <c r="I923" s="1"/>
+    </row>
+    <row r="924" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A924" s="1"/>
+      <c r="B924" s="1"/>
+      <c r="C924" s="1"/>
+      <c r="D924" s="1"/>
+      <c r="E924" s="1"/>
+      <c r="F924" s="1"/>
+      <c r="G924" s="1"/>
+      <c r="H924" s="1"/>
+      <c r="I924" s="1"/>
+    </row>
+    <row r="925" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A925" s="1"/>
+      <c r="B925" s="1"/>
+      <c r="C925" s="1"/>
+      <c r="D925" s="1"/>
+      <c r="E925" s="1"/>
+      <c r="F925" s="1"/>
+      <c r="G925" s="1"/>
+      <c r="H925" s="1"/>
+      <c r="I925" s="1"/>
+    </row>
+    <row r="926" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A926" s="1"/>
+      <c r="B926" s="1"/>
+      <c r="C926" s="1"/>
+      <c r="D926" s="1"/>
+      <c r="E926" s="1"/>
+      <c r="F926" s="1"/>
+      <c r="G926" s="1"/>
+      <c r="H926" s="1"/>
+      <c r="I926" s="1"/>
+    </row>
+    <row r="927" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A927" s="1"/>
+      <c r="B927" s="1"/>
+      <c r="C927" s="1"/>
+      <c r="D927" s="1"/>
+      <c r="E927" s="1"/>
+      <c r="F927" s="1"/>
+      <c r="G927" s="1"/>
+      <c r="H927" s="1"/>
+      <c r="I927" s="1"/>
+    </row>
+    <row r="928" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A928" s="1"/>
+      <c r="B928" s="1"/>
+      <c r="C928" s="1"/>
+      <c r="D928" s="1"/>
+      <c r="E928" s="1"/>
+      <c r="F928" s="1"/>
+      <c r="G928" s="1"/>
+      <c r="H928" s="1"/>
+      <c r="I928" s="1"/>
+    </row>
+    <row r="929" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A929" s="1"/>
+      <c r="B929" s="1"/>
+      <c r="C929" s="1"/>
+      <c r="D929" s="1"/>
+      <c r="E929" s="1"/>
+      <c r="F929" s="1"/>
+      <c r="G929" s="1"/>
+      <c r="H929" s="1"/>
+      <c r="I929" s="1"/>
+    </row>
+    <row r="930" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A930" s="1"/>
+      <c r="B930" s="1"/>
+      <c r="C930" s="1"/>
+      <c r="D930" s="1"/>
+      <c r="E930" s="1"/>
+      <c r="F930" s="1"/>
+      <c r="G930" s="1"/>
+      <c r="H930" s="1"/>
+      <c r="I930" s="1"/>
+    </row>
+    <row r="931" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A931" s="1"/>
+      <c r="B931" s="1"/>
+      <c r="C931" s="1"/>
+      <c r="D931" s="1"/>
+      <c r="E931" s="1"/>
+      <c r="F931" s="1"/>
+      <c r="G931" s="1"/>
+      <c r="H931" s="1"/>
+      <c r="I931" s="1"/>
+    </row>
+    <row r="932" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A932" s="1"/>
+      <c r="B932" s="1"/>
+      <c r="C932" s="1"/>
+      <c r="D932" s="1"/>
+      <c r="E932" s="1"/>
+      <c r="F932" s="1"/>
+      <c r="G932" s="1"/>
+      <c r="H932" s="1"/>
+      <c r="I932" s="1"/>
+    </row>
+    <row r="933" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A933" s="1"/>
+      <c r="B933" s="1"/>
+      <c r="C933" s="1"/>
+      <c r="D933" s="1"/>
+      <c r="E933" s="1"/>
+      <c r="F933" s="1"/>
+      <c r="G933" s="1"/>
+      <c r="H933" s="1"/>
+      <c r="I933" s="1"/>
+    </row>
+    <row r="934" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A934" s="1"/>
+      <c r="B934" s="1"/>
+      <c r="C934" s="1"/>
+      <c r="D934" s="1"/>
+      <c r="E934" s="1"/>
+      <c r="F934" s="1"/>
+      <c r="G934" s="1"/>
+      <c r="H934" s="1"/>
+      <c r="I934" s="1"/>
+    </row>
+    <row r="935" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A935" s="1"/>
+      <c r="B935" s="1"/>
+      <c r="C935" s="1"/>
+      <c r="D935" s="1"/>
+      <c r="E935" s="1"/>
+      <c r="F935" s="1"/>
+      <c r="G935" s="1"/>
+      <c r="H935" s="1"/>
+      <c r="I935" s="1"/>
+    </row>
+    <row r="936" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A936" s="1"/>
+      <c r="B936" s="1"/>
+      <c r="C936" s="1"/>
+      <c r="D936" s="1"/>
+      <c r="E936" s="1"/>
+      <c r="F936" s="1"/>
+      <c r="G936" s="1"/>
+      <c r="H936" s="1"/>
+      <c r="I936" s="1"/>
+    </row>
+    <row r="937" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A937" s="1"/>
+      <c r="B937" s="1"/>
+      <c r="C937" s="1"/>
+      <c r="D937" s="1"/>
+      <c r="E937" s="1"/>
+      <c r="F937" s="1"/>
+      <c r="G937" s="1"/>
+      <c r="H937" s="1"/>
+      <c r="I937" s="1"/>
+    </row>
+    <row r="938" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A938" s="1"/>
+      <c r="B938" s="1"/>
+      <c r="C938" s="1"/>
+      <c r="D938" s="1"/>
+      <c r="E938" s="1"/>
+      <c r="F938" s="1"/>
+      <c r="G938" s="1"/>
+      <c r="H938" s="1"/>
+      <c r="I938" s="1"/>
+    </row>
+    <row r="939" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A939" s="1"/>
+      <c r="B939" s="1"/>
+      <c r="C939" s="1"/>
+      <c r="D939" s="1"/>
+      <c r="E939" s="1"/>
+      <c r="F939" s="1"/>
+      <c r="G939" s="1"/>
+      <c r="H939" s="1"/>
+      <c r="I939" s="1"/>
+    </row>
+    <row r="940" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A940" s="1"/>
+      <c r="B940" s="1"/>
+      <c r="C940" s="1"/>
+      <c r="D940" s="1"/>
+      <c r="E940" s="1"/>
+      <c r="F940" s="1"/>
+      <c r="G940" s="1"/>
+      <c r="H940" s="1"/>
+      <c r="I940" s="1"/>
+    </row>
+    <row r="941" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A941" s="1"/>
+      <c r="B941" s="1"/>
+      <c r="C941" s="1"/>
+      <c r="D941" s="1"/>
+      <c r="E941" s="1"/>
+      <c r="F941" s="1"/>
+      <c r="G941" s="1"/>
+      <c r="H941" s="1"/>
+      <c r="I941" s="1"/>
+    </row>
+    <row r="942" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A942" s="1"/>
+      <c r="B942" s="1"/>
+      <c r="C942" s="1"/>
+      <c r="D942" s="1"/>
+      <c r="E942" s="1"/>
+      <c r="F942" s="1"/>
+      <c r="G942" s="1"/>
+      <c r="H942" s="1"/>
+      <c r="I942" s="1"/>
+    </row>
+    <row r="943" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A943" s="1"/>
+      <c r="B943" s="1"/>
+      <c r="C943" s="1"/>
+      <c r="D943" s="1"/>
+      <c r="E943" s="1"/>
+      <c r="F943" s="1"/>
+      <c r="G943" s="1"/>
+      <c r="H943" s="1"/>
+      <c r="I943" s="1"/>
+    </row>
+    <row r="944" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A944" s="1"/>
+      <c r="B944" s="1"/>
+      <c r="C944" s="1"/>
+      <c r="D944" s="1"/>
+      <c r="E944" s="1"/>
+      <c r="F944" s="1"/>
+      <c r="G944" s="1"/>
+      <c r="H944" s="1"/>
+      <c r="I944" s="1"/>
+    </row>
+    <row r="945" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A945" s="1"/>
+      <c r="B945" s="1"/>
+      <c r="C945" s="1"/>
+      <c r="D945" s="1"/>
+      <c r="E945" s="1"/>
+      <c r="F945" s="1"/>
+      <c r="G945" s="1"/>
+      <c r="H945" s="1"/>
+      <c r="I945" s="1"/>
+    </row>
+    <row r="946" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A946" s="1"/>
+      <c r="B946" s="1"/>
+      <c r="C946" s="1"/>
+      <c r="D946" s="1"/>
+      <c r="E946" s="1"/>
+      <c r="F946" s="1"/>
+      <c r="G946" s="1"/>
+      <c r="H946" s="1"/>
+      <c r="I946" s="1"/>
+    </row>
+    <row r="947" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A947" s="1"/>
+      <c r="B947" s="1"/>
+      <c r="C947" s="1"/>
+      <c r="D947" s="1"/>
+      <c r="E947" s="1"/>
+      <c r="F947" s="1"/>
+      <c r="G947" s="1"/>
+      <c r="H947" s="1"/>
+      <c r="I947" s="1"/>
+    </row>
+    <row r="948" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A948" s="1"/>
+      <c r="B948" s="1"/>
+      <c r="C948" s="1"/>
+      <c r="D948" s="1"/>
+      <c r="E948" s="1"/>
+      <c r="F948" s="1"/>
+      <c r="G948" s="1"/>
+      <c r="H948" s="1"/>
+      <c r="I948" s="1"/>
+    </row>
+    <row r="949" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A949" s="1"/>
+      <c r="B949" s="1"/>
+      <c r="C949" s="1"/>
+      <c r="D949" s="1"/>
+      <c r="E949" s="1"/>
+      <c r="F949" s="1"/>
+      <c r="G949" s="1"/>
+      <c r="H949" s="1"/>
+      <c r="I949" s="1"/>
+    </row>
+    <row r="950" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A950" s="1"/>
+      <c r="B950" s="1"/>
+      <c r="C950" s="1"/>
+      <c r="D950" s="1"/>
+      <c r="E950" s="1"/>
+      <c r="F950" s="1"/>
+      <c r="G950" s="1"/>
+      <c r="H950" s="1"/>
+      <c r="I950" s="1"/>
+    </row>
+    <row r="951" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A951" s="1"/>
+      <c r="B951" s="1"/>
+      <c r="C951" s="1"/>
+      <c r="D951" s="1"/>
+      <c r="E951" s="1"/>
+      <c r="F951" s="1"/>
+      <c r="G951" s="1"/>
+      <c r="H951" s="1"/>
+      <c r="I951" s="1"/>
+    </row>
+    <row r="952" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A952" s="1"/>
+      <c r="B952" s="1"/>
+      <c r="C952" s="1"/>
+      <c r="D952" s="1"/>
+      <c r="E952" s="1"/>
+      <c r="F952" s="1"/>
+      <c r="G952" s="1"/>
+      <c r="H952" s="1"/>
+      <c r="I952" s="1"/>
+    </row>
+    <row r="953" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A953" s="1"/>
+      <c r="B953" s="1"/>
+      <c r="C953" s="1"/>
+      <c r="D953" s="1"/>
+      <c r="E953" s="1"/>
+      <c r="F953" s="1"/>
+      <c r="G953" s="1"/>
+      <c r="H953" s="1"/>
+      <c r="I953" s="1"/>
+    </row>
+    <row r="954" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A954" s="1"/>
+      <c r="B954" s="1"/>
+      <c r="C954" s="1"/>
+      <c r="D954" s="1"/>
+      <c r="E954" s="1"/>
+      <c r="F954" s="1"/>
+      <c r="G954" s="1"/>
+      <c r="H954" s="1"/>
+      <c r="I954" s="1"/>
+    </row>
+    <row r="955" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A955" s="1"/>
+      <c r="B955" s="1"/>
+      <c r="C955" s="1"/>
+      <c r="D955" s="1"/>
+      <c r="E955" s="1"/>
+      <c r="F955" s="1"/>
+      <c r="G955" s="1"/>
+      <c r="H955" s="1"/>
+      <c r="I955" s="1"/>
+    </row>
+    <row r="956" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A956" s="1"/>
+      <c r="B956" s="1"/>
+      <c r="C956" s="1"/>
+      <c r="D956" s="1"/>
+      <c r="E956" s="1"/>
+      <c r="F956" s="1"/>
+      <c r="G956" s="1"/>
+      <c r="H956" s="1"/>
+      <c r="I956" s="1"/>
+    </row>
+    <row r="957" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A957" s="1"/>
+      <c r="B957" s="1"/>
+      <c r="C957" s="1"/>
+      <c r="D957" s="1"/>
+      <c r="E957" s="1"/>
+      <c r="F957" s="1"/>
+      <c r="G957" s="1"/>
+      <c r="H957" s="1"/>
+      <c r="I957" s="1"/>
+    </row>
+    <row r="958" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A958" s="1"/>
+      <c r="B958" s="1"/>
+      <c r="C958" s="1"/>
+      <c r="D958" s="1"/>
+      <c r="E958" s="1"/>
+      <c r="F958" s="1"/>
+      <c r="G958" s="1"/>
+      <c r="H958" s="1"/>
+      <c r="I958" s="1"/>
+    </row>
+    <row r="959" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A959" s="1"/>
+      <c r="B959" s="1"/>
+      <c r="C959" s="1"/>
+      <c r="D959" s="1"/>
+      <c r="E959" s="1"/>
+      <c r="F959" s="1"/>
+      <c r="G959" s="1"/>
+      <c r="H959" s="1"/>
+      <c r="I959" s="1"/>
+    </row>
+    <row r="960" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A960" s="1"/>
+      <c r="B960" s="1"/>
+      <c r="C960" s="1"/>
+      <c r="D960" s="1"/>
+      <c r="E960" s="1"/>
+      <c r="F960" s="1"/>
+      <c r="G960" s="1"/>
+      <c r="H960" s="1"/>
+      <c r="I960" s="1"/>
+    </row>
+    <row r="961" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A961" s="1"/>
+      <c r="B961" s="1"/>
+      <c r="C961" s="1"/>
+      <c r="D961" s="1"/>
+      <c r="E961" s="1"/>
+      <c r="F961" s="1"/>
+      <c r="G961" s="1"/>
+      <c r="H961" s="1"/>
+      <c r="I961" s="1"/>
+    </row>
+    <row r="962" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A962" s="1"/>
+      <c r="B962" s="1"/>
+      <c r="C962" s="1"/>
+      <c r="D962" s="1"/>
+      <c r="E962" s="1"/>
+      <c r="F962" s="1"/>
+      <c r="G962" s="1"/>
+      <c r="H962" s="1"/>
+      <c r="I962" s="1"/>
+    </row>
+    <row r="963" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A963" s="1"/>
+      <c r="B963" s="1"/>
+      <c r="C963" s="1"/>
+      <c r="D963" s="1"/>
+      <c r="E963" s="1"/>
+      <c r="F963" s="1"/>
+      <c r="G963" s="1"/>
+      <c r="H963" s="1"/>
+      <c r="I963" s="1"/>
+    </row>
+    <row r="964" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A964" s="1"/>
+      <c r="B964" s="1"/>
+      <c r="C964" s="1"/>
+      <c r="D964" s="1"/>
+      <c r="E964" s="1"/>
+      <c r="F964" s="1"/>
+      <c r="G964" s="1"/>
+      <c r="H964" s="1"/>
+      <c r="I964" s="1"/>
+    </row>
+    <row r="965" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A965" s="1"/>
+      <c r="B965" s="1"/>
+      <c r="C965" s="1"/>
+      <c r="D965" s="1"/>
+      <c r="E965" s="1"/>
+      <c r="F965" s="1"/>
+      <c r="G965" s="1"/>
+      <c r="H965" s="1"/>
+      <c r="I965" s="1"/>
+    </row>
+    <row r="966" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A966" s="1"/>
+      <c r="B966" s="1"/>
+      <c r="C966" s="1"/>
+      <c r="D966" s="1"/>
+      <c r="E966" s="1"/>
+      <c r="F966" s="1"/>
+      <c r="G966" s="1"/>
+      <c r="H966" s="1"/>
+      <c r="I966" s="1"/>
+    </row>
+    <row r="967" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A967" s="1"/>
+      <c r="B967" s="1"/>
+      <c r="C967" s="1"/>
+      <c r="D967" s="1"/>
+      <c r="E967" s="1"/>
+      <c r="F967" s="1"/>
+      <c r="G967" s="1"/>
+      <c r="H967" s="1"/>
+      <c r="I967" s="1"/>
+    </row>
+    <row r="968" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A968" s="1"/>
+      <c r="B968" s="1"/>
+      <c r="C968" s="1"/>
+      <c r="D968" s="1"/>
+      <c r="E968" s="1"/>
+      <c r="F968" s="1"/>
+      <c r="G968" s="1"/>
+      <c r="H968" s="1"/>
+      <c r="I968" s="1"/>
+    </row>
+    <row r="969" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A969" s="1"/>
+      <c r="B969" s="1"/>
+      <c r="C969" s="1"/>
+      <c r="D969" s="1"/>
+      <c r="E969" s="1"/>
+      <c r="F969" s="1"/>
+      <c r="G969" s="1"/>
+      <c r="H969" s="1"/>
+      <c r="I969" s="1"/>
+    </row>
+    <row r="970" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A970" s="1"/>
+      <c r="B970" s="1"/>
+      <c r="C970" s="1"/>
+      <c r="D970" s="1"/>
+      <c r="E970" s="1"/>
+      <c r="F970" s="1"/>
+      <c r="G970" s="1"/>
+      <c r="H970" s="1"/>
+      <c r="I970" s="1"/>
+    </row>
+    <row r="971" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A971" s="1"/>
+      <c r="B971" s="1"/>
+      <c r="C971" s="1"/>
+      <c r="D971" s="1"/>
+      <c r="E971" s="1"/>
+      <c r="F971" s="1"/>
+      <c r="G971" s="1"/>
+      <c r="H971" s="1"/>
+      <c r="I971" s="1"/>
+    </row>
+    <row r="972" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A972" s="1"/>
+      <c r="B972" s="1"/>
+      <c r="C972" s="1"/>
+      <c r="D972" s="1"/>
+      <c r="E972" s="1"/>
+      <c r="F972" s="1"/>
+      <c r="G972" s="1"/>
+      <c r="H972" s="1"/>
+      <c r="I972" s="1"/>
+    </row>
+    <row r="973" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A973" s="1"/>
+      <c r="B973" s="1"/>
+      <c r="C973" s="1"/>
+      <c r="D973" s="1"/>
+      <c r="E973" s="1"/>
+      <c r="F973" s="1"/>
+      <c r="G973" s="1"/>
+      <c r="H973" s="1"/>
+      <c r="I973" s="1"/>
+    </row>
+    <row r="974" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A974" s="1"/>
+      <c r="B974" s="1"/>
+      <c r="C974" s="1"/>
+      <c r="D974" s="1"/>
+      <c r="E974" s="1"/>
+      <c r="F974" s="1"/>
+      <c r="G974" s="1"/>
+      <c r="H974" s="1"/>
+      <c r="I974" s="1"/>
+    </row>
+    <row r="975" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A975" s="1"/>
+      <c r="B975" s="1"/>
+      <c r="C975" s="1"/>
+      <c r="D975" s="1"/>
+      <c r="E975" s="1"/>
+      <c r="F975" s="1"/>
+      <c r="G975" s="1"/>
+      <c r="H975" s="1"/>
+      <c r="I975" s="1"/>
+    </row>
+    <row r="976" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -11687,8 +14043,14 @@
     <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
